--- a/data/outputs/能源化工元源数据文件_elsevier/4（2）APPLIED CATALYSIS A-GENERAL.xlsx
+++ b/data/outputs/能源化工元源数据文件_elsevier/4（2）APPLIED CATALYSIS A-GENERAL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS43"/>
+  <dimension ref="A1:BU43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -939,6 +949,12 @@
           <t>2-s2.0-84916631545</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>2109</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1156,6 +1172,12 @@
           <t>2-s2.0-84916623281</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>2889</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1369,6 +1391,12 @@
           <t>2-s2.0-84916613135</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>1109</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1582,6 +1610,12 @@
           <t>2-s2.0-84916627259</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>937</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1799,6 +1833,12 @@
           <t>2-s2.0-84919392947</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>3254</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2020,6 +2060,12 @@
           <t>2-s2.0-84919372697</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>1319</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2241,6 +2287,12 @@
           <t>2-s2.0-84920191049</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>2924</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2458,6 +2510,12 @@
           <t>2-s2.0-84912522865</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>2111</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2671,6 +2729,12 @@
           <t>2-s2.0-84908377612</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>1136</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2888,6 +2952,12 @@
           <t>2-s2.0-84949117500</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>1609</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3105,6 +3175,12 @@
           <t>2-s2.0-84908370810</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>1362</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3330,6 +3406,12 @@
           <t>2-s2.0-84908546537</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>786</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3535,6 +3617,12 @@
           <t>2-s2.0-84908565501</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>765</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3748,6 +3836,12 @@
           <t>2-s2.0-84949118086</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>1614</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3961,6 +4055,12 @@
           <t>2-s2.0-84908521016</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>976</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4170,6 +4270,12 @@
           <t>2-s2.0-84949116284</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>1089</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4383,6 +4489,12 @@
           <t>2-s2.0-84912050768</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>1362</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4596,6 +4708,12 @@
           <t>2-s2.0-84911373631</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>1298</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4817,6 +4935,12 @@
           <t>2-s2.0-84949130706</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>1134</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5042,6 +5166,12 @@
           <t>2-s2.0-84928482380</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>662</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5255,6 +5385,12 @@
           <t>2-s2.0-84949117332</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>1596</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5468,6 +5604,12 @@
           <t>2-s2.0-84912000704</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>1346</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5689,6 +5831,12 @@
           <t>2-s2.0-84912008353</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>805</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5910,6 +6058,12 @@
           <t>2-s2.0-84949117710</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>1160</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6119,6 +6273,12 @@
           <t>2-s2.0-84949117792</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>630</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6328,6 +6488,12 @@
           <t>2-s2.0-84927759604</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>1243</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6541,6 +6707,12 @@
           <t>2-s2.0-84912558017</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>986</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6762,6 +6934,12 @@
           <t>2-s2.0-84949117120</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>966</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6975,6 +7153,12 @@
           <t>2-s2.0-84927711639</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>793</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7180,6 +7364,12 @@
           <t>2-s2.0-84912574782</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>1826</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7401,6 +7591,12 @@
           <t>2-s2.0-84949120946</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>1225</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7622,6 +7818,12 @@
           <t>2-s2.0-84927732308</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>1816</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7839,6 +8041,12 @@
           <t>2-s2.0-84908380323</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>11444</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>489</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8056,6 +8264,12 @@
           <t>2-s2.0-84908377917</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>951</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8277,6 +8491,12 @@
           <t>2-s2.0-84908372201</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>2112</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8502,6 +8722,12 @@
           <t>2-s2.0-84908365416</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>1452</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8723,6 +8949,12 @@
           <t>2-s2.0-84908363484</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>2916</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8936,6 +9168,12 @@
           <t>2-s2.0-84908388671</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>2927</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9157,6 +9395,12 @@
           <t>2-s2.0-84911446818</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>1071</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9378,6 +9622,12 @@
           <t>2-s2.0-84912040890</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>1977</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9595,6 +9845,12 @@
           <t>2-s2.0-84922422141</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>942</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9804,6 +10060,12 @@
           <t>2-s2.0-84927737410</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>999</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
